--- a/biology/Botanique/Sarcococca/Sarcococca.xlsx
+++ b/biology/Botanique/Sarcococca/Sarcococca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sarcococca est un genre de 20 à 30 espèces de la famille des Buxacées, originaire de l'Est et du Sud-Est asiatique et l'Himalaya.
-Ce sont des arbustes à croissance lente, un feuillage persistant, et atteignant jusqu'à 1-2 m de haut. Les feuilles sont alternes, de 3-12 cm de long et 1-4 cm de large. Elle redoute les vents froids et l'humidité au sol[1].
+Ce sont des arbustes à croissance lente, un feuillage persistant, et atteignant jusqu'à 1-2 m de haut. Les feuilles sont alternes, de 3-12 cm de long et 1-4 cm de large. Elle redoute les vents froids et l'humidité au sol.
 Les espèces du genre sont monoïques. Elles portent des fleurs odorantes, souvent en hiver. Le fruit est une drupe rouge ou noire, contenant une à trois graines. Certaines espèces sont cultivées comme couvre-sol dans les zones ombragées.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Selon l'IPNI et l'index Tropicos (janvier 2011) :
 Sarcococca balansae Gagnep.
@@ -524,7 +538,7 @@
 Sarcococca euphlebia Merr. (synonyme : Sarcococca vagans Stapf)
 Sarcococca guatemalensis I.M.Johnst.
 Sarcococca hookeriana Baill.
-Sarcococca hookeriana var. digyna Franch. (synonyme : Sarcococca humilis Stapf)[2]
+Sarcococca hookeriana var. digyna Franch. (synonyme : Sarcococca humilis Stapf)
 Sarcococca hookeriana var. humilis Rehder &amp; E.H. Wilson
 Sarcococca laurifolius Kunth
 Sarcococca longifolia M. Cheng
@@ -542,7 +556,7 @@
 Sarcococca tonkinensis Gagnep.
 Sarcococca trinervia Wight &amp; Wight
 Sarcococca zeylanica Baill.
-Selon NCBI  (20 Jul 2010)[3] :
+Selon NCBI  (20 Jul 2010) :
 Sarcococca confertiflora
 Sarcococca confusa
 Sarcococca hookeriana
